--- a/conf-core/src/test/resources/dataloader/device-types-success-properties-update.test.xlsx
+++ b/conf-core/src/test/resources/dataloader/device-types-success-properties-update.test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>DEVICE TYPE</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>https://ccdb.esss.lu.se/resources/help/ccdb_conventions.pdf</t>
+  </si>
+  <si>
+    <t>ACENPOS</t>
+  </si>
+  <si>
+    <t>APERTURE</t>
   </si>
 </sst>
 </file>
@@ -216,11 +222,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -542,7 +548,7 @@
       </c>
       <c r="E2">
         <f>SUMPRODUCT((E11:E65517&lt;&gt;"")/COUNTIF(E11:E65517,E11:E65517&amp;""))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21.95" customHeight="1">
@@ -572,7 +578,7 @@
       </c>
       <c r="E4">
         <f>COUNTIF(A11:A65468,"UPDATE DEVICE TYPE")+COUNTIF(A11:A65468,"UPDATE PROPERTY")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21.95" customHeight="1">
@@ -599,30 +605,30 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1"/>
     <row r="9" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
@@ -701,11 +707,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
+    <row r="15" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2"/>
